--- a/choice.xlsx
+++ b/choice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTAPI\iq_math_orginal\iq_math_orginal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iq_math_orginal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E47AD2C-3094-426A-A5A2-5506070D392F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54006244-CBF9-46A2-9CD9-40A433AF6E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>question_text_uz</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>level</t>
-  </si>
-  <si>
-    <t>topic_name_uz</t>
-  </si>
-  <si>
-    <t>topic_id</t>
   </si>
   <si>
     <t>video_url_uz</t>
@@ -385,58 +379,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
